--- a/biology/Botanique/Malanea_sarmentosa/Malanea_sarmentosa.xlsx
+++ b/biology/Botanique/Malanea_sarmentosa/Malanea_sarmentosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malanea sarmentosa est une espèce néotropicale de liane, appartenant à la famille des Rubiaceae. Il s'agit de l'espèce type du genre Malanea Aubl.[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malanea sarmentosa est une espèce néotropicale de liane, appartenant à la famille des Rubiaceae. Il s'agit de l'espèce type du genre Malanea Aubl..
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Malanea sarmentosa est une plante grimpante basse.
 Les feuilles mesurent 3,5-16 × 2-10 cm avec des stipules longs de 8-12 mm de long.
@@ -519,10 +533,10 @@
 Le limbe du calice est long de 0,8-1 mm.
 La corolle a un tube long d'environ 2 mm de long.
 Les fruits mesurent 6-10 × 4-8 mm. 
-Malanea sarmentosa est souvent reconnaissable à ses feuilles qui sont densément tomentuleuses sur la face inférieure et qui ont des marges révolues et une nervation sillonnée adaxialement[4].
+Malanea sarmentosa est souvent reconnaissable à ses feuilles qui sont densément tomentuleuses sur la face inférieure et qui ont des marges révolues et une nervation sillonnée adaxialement.
 En 1953, Lemée en propose la description suivante de Malanea sarmentosa' :
 « Arbrisseau grimpant à jeunes rameaux poilus-roussâtres ; feuilles de 0,10-0,18 sur 0,05-0,10, obovales obtuses poilues-roussâtres en dessous, nervures imprimées en dessus, saillantes en dessous , stipules de 7-9 mm., ovales-oblongues ou lancéolées ; panicules poilues-roussâtres ; fleurs à calice très petit, corolle bleue finement duveteuse à lobes égaux au tube, ovales aigus, poilus en dedans (poils blanchâtres), anthères dorsifixes. - (Aublet). »
-— Albert Lemée, 1953.[5]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -550,9 +564,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malanea sarmentosa est présente au Venezuela (Amazonas, Bolívar), à Trinidad et Tobago, au Guyana, au Suriname, en Guyane et au Brésil[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malanea sarmentosa est présente au Venezuela (Amazonas, Bolívar), à Trinidad et Tobago, au Guyana, au Suriname, en Guyane et au Brésil.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malanea sarmentosa pousse dans les forêts montagnardes basses à montagnardes à feuilles persistantes, à 500-1 400 m d'altitude[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malanea sarmentosa pousse dans les forêts montagnardes basses à montagnardes à feuilles persistantes, à 500-1 400 m d'altitude.
 </t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[6] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « 1. MALANEA ſarmentoſa. (Tabula 41.)
 Flutex trunco quinque aut ſex-pedali ; ramos longiſſimos, ſarmentoſos, nodoſos, oppoſitos, ſuprà proceras arbores expanſos emittence ; ramuſculis longis, pendulis, tomentoſis, rufeſcentibus. Folia oppoſita, ovata, obtuſa, integerrima, ſupernè viridia, internè tomentoſa, lanugine rufeſcente, petiolata. Stipula oblonga, acuta, villoſa, decidua, utrinquè intrà baſim petiolorum. Flores glomerati; glomerulis oppofitis, in ſpica diſpoſitis ; spicis villoſis, oppoſitis, axillaribus.
 Calix tomentoſus. Corolla ſubcærulea.
